--- a/medex/medex/cache/user_data/niravs@tecex.com.xlsx
+++ b/medex/medex/cache/user_data/niravs@tecex.com.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="2" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Picklists" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Contacts picklists" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="SOSetup" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="SODetails" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Shipment Order Packages" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Line Item List 1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Test Outcomes" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Mapping Management" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Expected Results (Python)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Picklists" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contacts picklists" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOSetup" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODetails" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shipment Order Packages" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Line Item List 1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Outcomes" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mapping Management" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expected Results (Python)" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Test Outcomes'!$A$1:$G$260</definedName>
@@ -19187,7 +19187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet6">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -28113,7 +28113,7 @@
   <autoFilter ref="A1:G260"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -28136,7 +28136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet13">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -63715,10 +63715,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/medex/medex/cache/user_data/niravs@tecex.com.xlsx
+++ b/medex/medex/cache/user_data/niravs@tecex.com.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="3" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="3" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Picklists" sheetId="1" state="hidden" r:id="rId1"/>
@@ -526,13 +526,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35.44140625" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="40.21875" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="50.109375" bestFit="1" customWidth="1" style="4" min="3" max="4"/>
-    <col width="65.6640625" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="50.109375" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="35.42578125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="40.28515625" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="50.140625" bestFit="1" customWidth="1" style="4" min="3" max="4"/>
+    <col width="65.7109375" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="50.140625" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9837,111 +9837,109 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.88671875" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="23.21875" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="22.21875" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="18.44140625" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="16.85546875" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="23.28515625" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="22.28515625" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="18.42578125" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
     <col width="21" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
     <col width="16" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
-    <col width="27.109375" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
-    <col width="19.44140625" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
-    <col width="15.44140625" bestFit="1" customWidth="1" style="4" min="10" max="10"/>
-    <col width="39.44140625" bestFit="1" customWidth="1" style="4" min="11" max="11"/>
-    <col width="14.5546875" bestFit="1" customWidth="1" style="4" min="12" max="12"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" style="4" min="13" max="13"/>
-    <col width="12.21875" bestFit="1" customWidth="1" style="4" min="14" max="14"/>
-    <col width="15.6640625" bestFit="1" customWidth="1" style="4" min="15" max="15"/>
-    <col width="13.44140625" bestFit="1" customWidth="1" style="4" min="16" max="16"/>
-    <col width="17.88671875" bestFit="1" customWidth="1" style="4" min="17" max="17"/>
-    <col width="46.33203125" bestFit="1" customWidth="1" style="4" min="18" max="18"/>
-    <col width="11.109375" bestFit="1" customWidth="1" style="4" min="19" max="19"/>
-    <col width="24.33203125" bestFit="1" customWidth="1" style="4" min="20" max="20"/>
-    <col width="16.5546875" bestFit="1" customWidth="1" style="4" min="21" max="21"/>
-    <col width="27.109375" bestFit="1" customWidth="1" style="4" min="22" max="22"/>
-    <col width="18.77734375" bestFit="1" customWidth="1" style="4" min="23" max="23"/>
-    <col width="14.44140625" bestFit="1" customWidth="1" style="4" min="24" max="24"/>
-    <col width="15.5546875" bestFit="1" customWidth="1" style="4" min="25" max="25"/>
-    <col width="19.44140625" bestFit="1" customWidth="1" style="4" min="26" max="26"/>
-    <col width="14.5546875" bestFit="1" customWidth="1" style="4" min="27" max="27"/>
-    <col width="40.5546875" bestFit="1" customWidth="1" style="4" min="28" max="28"/>
-    <col width="17.77734375" bestFit="1" customWidth="1" style="4" min="29" max="29"/>
-    <col width="20.109375" bestFit="1" customWidth="1" style="4" min="30" max="30"/>
+    <col width="27.140625" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
+    <col width="19.42578125" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
+    <col width="15.42578125" bestFit="1" customWidth="1" style="4" min="10" max="10"/>
+    <col width="39.42578125" bestFit="1" customWidth="1" style="4" min="11" max="11"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" style="4" min="12" max="12"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" style="4" min="13" max="13"/>
+    <col width="12.28515625" bestFit="1" customWidth="1" style="4" min="14" max="14"/>
+    <col width="15.7109375" bestFit="1" customWidth="1" style="4" min="15" max="15"/>
+    <col width="13.42578125" bestFit="1" customWidth="1" style="4" min="16" max="16"/>
+    <col width="17.85546875" bestFit="1" customWidth="1" style="4" min="17" max="17"/>
+    <col width="46.28515625" bestFit="1" customWidth="1" style="4" min="18" max="18"/>
+    <col width="11.140625" bestFit="1" customWidth="1" style="4" min="19" max="19"/>
+    <col width="24.28515625" bestFit="1" customWidth="1" style="4" min="20" max="20"/>
+    <col width="16.5703125" bestFit="1" customWidth="1" style="4" min="21" max="21"/>
+    <col width="27.140625" bestFit="1" customWidth="1" style="4" min="22" max="22"/>
+    <col width="18.7109375" bestFit="1" customWidth="1" style="4" min="23" max="23"/>
+    <col width="14.42578125" bestFit="1" customWidth="1" style="4" min="24" max="24"/>
+    <col width="15.5703125" bestFit="1" customWidth="1" style="4" min="25" max="25"/>
+    <col width="19.42578125" bestFit="1" customWidth="1" style="4" min="26" max="26"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" style="4" min="27" max="27"/>
+    <col width="40.5703125" bestFit="1" customWidth="1" style="4" min="28" max="28"/>
+    <col width="17.7109375" bestFit="1" customWidth="1" style="4" min="29" max="29"/>
+    <col width="20.140625" bestFit="1" customWidth="1" style="4" min="30" max="30"/>
     <col width="23" bestFit="1" customWidth="1" style="4" min="31" max="31"/>
-    <col width="18.77734375" bestFit="1" customWidth="1" style="4" min="32" max="32"/>
-    <col width="17.33203125" bestFit="1" customWidth="1" style="4" min="33" max="33"/>
-    <col width="28.88671875" bestFit="1" customWidth="1" style="4" min="34" max="34"/>
-    <col width="42.33203125" bestFit="1" customWidth="1" style="4" min="35" max="35"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" style="4" min="36" max="36"/>
-    <col width="41.33203125" bestFit="1" customWidth="1" style="4" min="37" max="37"/>
-    <col width="21.5546875" bestFit="1" customWidth="1" style="4" min="38" max="38"/>
-    <col width="14.88671875" bestFit="1" customWidth="1" style="4" min="39" max="39"/>
-    <col width="27.77734375" bestFit="1" customWidth="1" style="4" min="40" max="40"/>
-    <col width="21.77734375" bestFit="1" customWidth="1" style="4" min="41" max="41"/>
-    <col width="13.21875" bestFit="1" customWidth="1" style="4" min="42" max="42"/>
-    <col width="13.88671875" bestFit="1" customWidth="1" style="4" min="43" max="43"/>
-    <col width="22.33203125" bestFit="1" customWidth="1" style="4" min="44" max="44"/>
-    <col width="17.33203125" bestFit="1" customWidth="1" style="4" min="45" max="45"/>
+    <col width="18.7109375" bestFit="1" customWidth="1" style="4" min="32" max="32"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" style="4" min="33" max="33"/>
+    <col width="28.85546875" bestFit="1" customWidth="1" style="4" min="34" max="34"/>
+    <col width="42.28515625" bestFit="1" customWidth="1" style="4" min="35" max="35"/>
+    <col width="16.28515625" bestFit="1" customWidth="1" style="4" min="36" max="36"/>
+    <col width="41.28515625" bestFit="1" customWidth="1" style="4" min="37" max="37"/>
+    <col width="21.5703125" bestFit="1" customWidth="1" style="4" min="38" max="38"/>
+    <col width="14.85546875" bestFit="1" customWidth="1" style="4" min="39" max="39"/>
+    <col width="27.7109375" bestFit="1" customWidth="1" style="4" min="40" max="40"/>
+    <col width="21.7109375" bestFit="1" customWidth="1" style="4" min="41" max="41"/>
+    <col width="13.28515625" bestFit="1" customWidth="1" style="4" min="42" max="42"/>
+    <col width="13.85546875" bestFit="1" customWidth="1" style="4" min="43" max="43"/>
+    <col width="22.28515625" bestFit="1" customWidth="1" style="4" min="44" max="44"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" style="4" min="45" max="45"/>
     <col width="15" bestFit="1" customWidth="1" style="4" min="46" max="46"/>
-    <col width="35.44140625" bestFit="1" customWidth="1" style="4" min="47" max="47"/>
-    <col width="21.77734375" bestFit="1" customWidth="1" style="4" min="48" max="48"/>
-    <col width="29.6640625" bestFit="1" customWidth="1" style="4" min="49" max="49"/>
-    <col width="23.88671875" bestFit="1" customWidth="1" style="4" min="50" max="50"/>
-    <col width="29.44140625" bestFit="1" customWidth="1" style="4" min="51" max="51"/>
-    <col width="24.5546875" bestFit="1" customWidth="1" style="4" min="52" max="52"/>
-    <col width="24.109375" bestFit="1" customWidth="1" style="4" min="53" max="53"/>
-    <col width="17.77734375" bestFit="1" customWidth="1" style="4" min="54" max="54"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" style="4" min="55" max="55"/>
-    <col width="16.21875" bestFit="1" customWidth="1" style="4" min="56" max="56"/>
-    <col width="16.33203125" bestFit="1" customWidth="1" style="4" min="57" max="57"/>
-    <col width="22.77734375" bestFit="1" customWidth="1" style="4" min="58" max="58"/>
-    <col width="26.109375" bestFit="1" customWidth="1" style="4" min="59" max="59"/>
-    <col width="27.44140625" bestFit="1" customWidth="1" style="4" min="60" max="60"/>
-    <col width="50.109375" bestFit="1" customWidth="1" style="4" min="61" max="61"/>
-    <col width="18.33203125" bestFit="1" customWidth="1" style="4" min="62" max="62"/>
-    <col width="19.88671875" bestFit="1" customWidth="1" style="4" min="63" max="63"/>
-    <col width="21.33203125" bestFit="1" customWidth="1" style="4" min="64" max="64"/>
-    <col width="22.44140625" bestFit="1" customWidth="1" style="4" min="65" max="65"/>
-    <col width="13.77734375" bestFit="1" customWidth="1" style="4" min="66" max="66"/>
-    <col width="10.21875" bestFit="1" customWidth="1" style="4" min="67" max="67"/>
-    <col width="40.21875" bestFit="1" customWidth="1" style="4" min="68" max="68"/>
-    <col width="18.33203125" bestFit="1" customWidth="1" style="4" min="69" max="69"/>
-    <col width="26.33203125" bestFit="1" customWidth="1" style="4" min="70" max="70"/>
-    <col width="25.44140625" bestFit="1" customWidth="1" style="4" min="71" max="71"/>
-    <col width="19.5546875" bestFit="1" customWidth="1" style="4" min="72" max="72"/>
-    <col width="17.6640625" bestFit="1" customWidth="1" style="4" min="73" max="73"/>
-    <col width="20.5546875" bestFit="1" customWidth="1" style="4" min="74" max="74"/>
-    <col width="11.88671875" bestFit="1" customWidth="1" style="4" min="75" max="75"/>
-    <col width="22.77734375" bestFit="1" customWidth="1" style="4" min="76" max="77"/>
-    <col width="24.33203125" bestFit="1" customWidth="1" style="4" min="78" max="78"/>
-    <col width="16.21875" bestFit="1" customWidth="1" style="4" min="79" max="79"/>
-    <col width="21.109375" bestFit="1" customWidth="1" style="4" min="80" max="80"/>
-    <col width="23.44140625" bestFit="1" customWidth="1" style="4" min="81" max="81"/>
-    <col width="14.5546875" bestFit="1" customWidth="1" style="4" min="82" max="82"/>
-    <col width="27.33203125" bestFit="1" customWidth="1" style="4" min="83" max="83"/>
-    <col width="23.33203125" bestFit="1" customWidth="1" style="4" min="84" max="84"/>
-    <col width="17.44140625" bestFit="1" customWidth="1" style="4" min="85" max="85"/>
-    <col width="20.5546875" bestFit="1" customWidth="1" style="4" min="86" max="86"/>
-    <col width="29.44140625" bestFit="1" customWidth="1" style="4" min="87" max="87"/>
-    <col width="25.5546875" bestFit="1" customWidth="1" style="4" min="88" max="88"/>
-    <col width="26.6640625" bestFit="1" customWidth="1" style="4" min="89" max="89"/>
+    <col width="35.42578125" bestFit="1" customWidth="1" style="4" min="47" max="47"/>
+    <col width="21.7109375" bestFit="1" customWidth="1" style="4" min="48" max="48"/>
+    <col width="29.7109375" bestFit="1" customWidth="1" style="4" min="49" max="49"/>
+    <col width="23.85546875" bestFit="1" customWidth="1" style="4" min="50" max="50"/>
+    <col width="29.42578125" bestFit="1" customWidth="1" style="4" min="51" max="51"/>
+    <col width="24.5703125" bestFit="1" customWidth="1" style="4" min="52" max="52"/>
+    <col width="24.140625" bestFit="1" customWidth="1" style="4" min="53" max="53"/>
+    <col width="17.7109375" bestFit="1" customWidth="1" style="4" min="54" max="54"/>
+    <col width="16.28515625" bestFit="1" customWidth="1" style="4" min="55" max="57"/>
+    <col width="22.7109375" bestFit="1" customWidth="1" style="4" min="58" max="58"/>
+    <col width="26.140625" bestFit="1" customWidth="1" style="4" min="59" max="59"/>
+    <col width="27.42578125" bestFit="1" customWidth="1" style="4" min="60" max="60"/>
+    <col width="50.140625" bestFit="1" customWidth="1" style="4" min="61" max="61"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" style="4" min="62" max="62"/>
+    <col width="19.85546875" bestFit="1" customWidth="1" style="4" min="63" max="63"/>
+    <col width="21.28515625" bestFit="1" customWidth="1" style="4" min="64" max="64"/>
+    <col width="22.42578125" bestFit="1" customWidth="1" style="4" min="65" max="65"/>
+    <col width="13.7109375" bestFit="1" customWidth="1" style="4" min="66" max="66"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" style="4" min="67" max="67"/>
+    <col width="40.28515625" bestFit="1" customWidth="1" style="4" min="68" max="68"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" style="4" min="69" max="69"/>
+    <col width="26.28515625" bestFit="1" customWidth="1" style="4" min="70" max="70"/>
+    <col width="25.42578125" bestFit="1" customWidth="1" style="4" min="71" max="71"/>
+    <col width="19.5703125" bestFit="1" customWidth="1" style="4" min="72" max="72"/>
+    <col width="17.7109375" bestFit="1" customWidth="1" style="4" min="73" max="73"/>
+    <col width="20.5703125" bestFit="1" customWidth="1" style="4" min="74" max="74"/>
+    <col width="11.85546875" bestFit="1" customWidth="1" style="4" min="75" max="75"/>
+    <col width="22.7109375" bestFit="1" customWidth="1" style="4" min="76" max="77"/>
+    <col width="24.28515625" bestFit="1" customWidth="1" style="4" min="78" max="78"/>
+    <col width="16.28515625" bestFit="1" customWidth="1" style="4" min="79" max="79"/>
+    <col width="21.140625" bestFit="1" customWidth="1" style="4" min="80" max="80"/>
+    <col width="23.42578125" bestFit="1" customWidth="1" style="4" min="81" max="81"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" style="4" min="82" max="82"/>
+    <col width="27.28515625" bestFit="1" customWidth="1" style="4" min="83" max="83"/>
+    <col width="23.28515625" bestFit="1" customWidth="1" style="4" min="84" max="84"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" style="4" min="85" max="85"/>
+    <col width="20.5703125" bestFit="1" customWidth="1" style="4" min="86" max="86"/>
+    <col width="29.42578125" bestFit="1" customWidth="1" style="4" min="87" max="87"/>
+    <col width="25.5703125" bestFit="1" customWidth="1" style="4" min="88" max="88"/>
+    <col width="26.7109375" bestFit="1" customWidth="1" style="4" min="89" max="89"/>
     <col width="28" bestFit="1" customWidth="1" style="4" min="90" max="90"/>
-    <col width="18.88671875" bestFit="1" customWidth="1" style="4" min="91" max="91"/>
-    <col width="27.88671875" bestFit="1" customWidth="1" style="4" min="92" max="92"/>
-    <col width="22.33203125" bestFit="1" customWidth="1" style="4" min="93" max="93"/>
-    <col width="16.109375" bestFit="1" customWidth="1" style="4" min="94" max="94"/>
-    <col width="18.33203125" bestFit="1" customWidth="1" style="4" min="95" max="95"/>
-    <col width="17.88671875" bestFit="1" customWidth="1" style="4" min="96" max="96"/>
-    <col width="14.5546875" bestFit="1" customWidth="1" style="4" min="97" max="97"/>
+    <col width="18.85546875" bestFit="1" customWidth="1" style="4" min="91" max="91"/>
+    <col width="27.85546875" bestFit="1" customWidth="1" style="4" min="92" max="92"/>
+    <col width="22.28515625" bestFit="1" customWidth="1" style="4" min="93" max="93"/>
+    <col width="16.140625" bestFit="1" customWidth="1" style="4" min="94" max="94"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" style="4" min="95" max="95"/>
+    <col width="17.85546875" bestFit="1" customWidth="1" style="4" min="96" max="96"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" style="4" min="97" max="97"/>
     <col width="20" bestFit="1" customWidth="1" style="4" min="98" max="98"/>
-    <col width="15.44140625" bestFit="1" customWidth="1" style="4" min="99" max="99"/>
-    <col width="22.6640625" bestFit="1" customWidth="1" style="4" min="100" max="100"/>
-    <col width="11.88671875" bestFit="1" customWidth="1" style="4" min="101" max="101"/>
-    <col width="14.88671875" bestFit="1" customWidth="1" style="4" min="102" max="102"/>
-    <col width="13.21875" bestFit="1" customWidth="1" style="4" min="103" max="104"/>
-    <col width="7.109375" bestFit="1" customWidth="1" style="4" min="105" max="105"/>
+    <col width="15.42578125" bestFit="1" customWidth="1" style="4" min="99" max="99"/>
+    <col width="22.7109375" bestFit="1" customWidth="1" style="4" min="100" max="100"/>
+    <col width="11.85546875" bestFit="1" customWidth="1" style="4" min="101" max="101"/>
+    <col width="14.85546875" bestFit="1" customWidth="1" style="4" min="102" max="102"/>
+    <col width="13.28515625" bestFit="1" customWidth="1" style="4" min="103" max="104"/>
+    <col width="7.140625" bestFit="1" customWidth="1" style="4" min="105" max="105"/>
     <col width="11" bestFit="1" customWidth="1" style="4" min="106" max="106"/>
   </cols>
   <sheetData>
@@ -14029,7 +14027,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1">
@@ -17233,25 +17231,25 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.44140625" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="50.109375" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col hidden="1" width="26.21875" customWidth="1" style="4" min="3" max="3"/>
+    <col width="15.42578125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="50.140625" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col hidden="1" width="26.28515625" customWidth="1" style="4" min="3" max="3"/>
     <col hidden="1" width="25" customWidth="1" style="4" min="4" max="4"/>
     <col width="15" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="24.88671875" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="26.88671875" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
-    <col width="18.88671875" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
-    <col width="18.88671875" customWidth="1" style="4" min="9" max="9"/>
-    <col width="34.88671875" bestFit="1" customWidth="1" style="4" min="10" max="10"/>
-    <col width="27.21875" bestFit="1" customWidth="1" style="4" min="11" max="11"/>
-    <col width="27.21875" customWidth="1" style="4" min="12" max="12"/>
-    <col width="37.21875" bestFit="1" customWidth="1" style="4" min="13" max="13"/>
-    <col width="37.21875" customWidth="1" style="4" min="14" max="14"/>
-    <col width="44.33203125" bestFit="1" customWidth="1" style="4" min="15" max="15"/>
-    <col width="20.77734375" bestFit="1" customWidth="1" style="4" min="16" max="16"/>
-    <col width="15.6640625" bestFit="1" customWidth="1" style="4" min="17" max="17"/>
+    <col width="24.85546875" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="26.85546875" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="18.85546875" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
+    <col width="18.85546875" customWidth="1" style="4" min="9" max="9"/>
+    <col width="34.85546875" bestFit="1" customWidth="1" style="4" min="10" max="10"/>
+    <col width="27.28515625" bestFit="1" customWidth="1" style="4" min="11" max="11"/>
+    <col width="27.28515625" customWidth="1" style="4" min="12" max="12"/>
+    <col width="37.28515625" bestFit="1" customWidth="1" style="4" min="13" max="13"/>
+    <col width="37.28515625" customWidth="1" style="4" min="14" max="14"/>
+    <col width="44.28515625" bestFit="1" customWidth="1" style="4" min="15" max="15"/>
+    <col width="20.7109375" bestFit="1" customWidth="1" style="4" min="16" max="16"/>
+    <col width="15.7109375" bestFit="1" customWidth="1" style="4" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17344,7 +17342,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EX01</t>
+          <t>EX02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -17478,29 +17476,29 @@
   </sheetPr>
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.88671875" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="17.109375" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="11.77734375" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="19.44140625" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="32.88671875" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="31.33203125" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="29.6640625" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
-    <col width="32.33203125" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
-    <col width="25.21875" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
-    <col width="16.5546875" bestFit="1" customWidth="1" style="4" min="10" max="10"/>
-    <col width="28.88671875" bestFit="1" customWidth="1" style="4" min="11" max="11"/>
-    <col width="20.44140625" bestFit="1" customWidth="1" style="4" min="12" max="12"/>
-    <col width="25.77734375" bestFit="1" customWidth="1" style="4" min="13" max="13"/>
+    <col width="9.85546875" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="17.140625" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="19.42578125" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="32.85546875" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="31.28515625" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="29.7109375" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="32.28515625" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
+    <col width="25.28515625" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
+    <col width="16.5703125" bestFit="1" customWidth="1" style="4" min="10" max="10"/>
+    <col width="28.85546875" bestFit="1" customWidth="1" style="4" min="11" max="11"/>
+    <col width="20.42578125" bestFit="1" customWidth="1" style="4" min="12" max="12"/>
+    <col width="25.7109375" bestFit="1" customWidth="1" style="4" min="13" max="13"/>
     <col width="13" bestFit="1" customWidth="1" style="4" min="14" max="14"/>
-    <col width="23.33203125" bestFit="1" customWidth="1" style="4" min="15" max="15"/>
+    <col width="23.28515625" bestFit="1" customWidth="1" style="4" min="15" max="15"/>
     <col width="25" bestFit="1" customWidth="1" style="4" min="16" max="16"/>
-    <col width="26.5546875" bestFit="1" customWidth="1" style="4" min="17" max="17"/>
+    <col width="26.5703125" bestFit="1" customWidth="1" style="4" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17586,7 +17584,7 @@
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>Vendor Reference (Optional)</t>
+          <t>Vendor Reference (optional)</t>
         </is>
       </c>
     </row>
@@ -17647,7 +17645,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Test02</t>
+          <t>Test02.1</t>
         </is>
       </c>
     </row>
@@ -17695,6 +17693,9 @@
       <c r="M3" t="n">
         <v>250</v>
       </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Medical SO Creation script testing</t>
@@ -17702,7 +17703,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Test02</t>
+          <t>Test02.2</t>
         </is>
       </c>
     </row>
@@ -19237,20 +19238,20 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.77734375" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="18.77734375" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="17.21875" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="13.33203125" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="14.5546875" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="6.77734375" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="7.77734375" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
-    <col width="6.6640625" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
-    <col width="17.88671875" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
+    <col width="5.7109375" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="18.7109375" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="13.28515625" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="6.7109375" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="7.7109375" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="6.7109375" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
+    <col width="17.85546875" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19394,13 +19395,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18.5546875" bestFit="1" customWidth="1" style="4" min="1" max="2"/>
-    <col width="8.44140625" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="9.44140625" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="18.5703125" bestFit="1" customWidth="1" style="4" min="1" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="9.42578125" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
     <col width="11" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="15.77734375" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="15.7109375" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
